--- a/HCM/masterSheet.xlsx
+++ b/HCM/masterSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.c.hulagur\Documents\HCM\Code\OracleCloudTestAutomation\HCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senthil.n.thangaraj\PycharmProjects\OracleCloudTestAutomation\HCM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256EAD61-65A8-460B-92BC-F8DDA9F57BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525265B1-A37C-42D9-87D0-542A00274F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{6BED80E2-FF4C-4CCB-9FE6-189641F24026}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6BED80E2-FF4C-4CCB-9FE6-189641F24026}"/>
   </bookViews>
   <sheets>
     <sheet name="module_list" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>CoreHRTestCase</t>
   </si>
@@ -43,21 +43,12 @@
     <t>PayrollTestCase</t>
   </si>
   <si>
-    <t>Benefits</t>
-  </si>
-  <si>
     <t>Script_Name</t>
   </si>
   <si>
     <t>Pre_requisites</t>
   </si>
   <si>
-    <t>test_HR_02</t>
-  </si>
-  <si>
-    <t>MX_Complement_and_Vacancy_Report</t>
-  </si>
-  <si>
     <t>TC118_Manager_Check_In</t>
   </si>
   <si>
@@ -70,9 +61,6 @@
     <t>Departure</t>
   </si>
   <si>
-    <t>test_HR_92</t>
-  </si>
-  <si>
     <t>HR_81_Quick_Actions_Manual_Hire</t>
   </si>
   <si>
@@ -80,6 +68,135 @@
   </si>
   <si>
     <t>CMP_TC001_06_Workforce_Compensation_Configuration_Modify_Iindividual_Performance_Percentages_To_Be_Allocated_Based_On_Performance_Rating</t>
+  </si>
+  <si>
+    <t>RandomSequence</t>
+  </si>
+  <si>
+    <t>HR_78_Quick_Actions_Manage_Position_Create_Current_Date</t>
+  </si>
+  <si>
+    <t>HR_79_Quick_Actions_Manage_Position_Update</t>
+  </si>
+  <si>
+    <t>HR_905_Quick_Actions_Manual_Hire_Contract</t>
+  </si>
+  <si>
+    <t>HR_906_Quick_Actions_Manual_Hire_Union</t>
+  </si>
+  <si>
+    <t>HR_913_Staff_List_BI</t>
+  </si>
+  <si>
+    <t>HR_25_Employee_updates_personal_information_Address_ESS_E_FT</t>
+  </si>
+  <si>
+    <t>HR_85_Quick_Actions_Admin_Update_Personal_Information_Address</t>
+  </si>
+  <si>
+    <t>HR_29_Employee_Updates_Views_Document_Records_ESS_NU_FT</t>
+  </si>
+  <si>
+    <t>HR_34_Employee_Views_Salary_Information_ESS_NU_FT</t>
+  </si>
+  <si>
+    <t>HR_35_Employee_Views_T4_ESS_NU_FT</t>
+  </si>
+  <si>
+    <t>HR_28_Employee_Updates_Views_Contacts_Information_ESS_NU_FT</t>
+  </si>
+  <si>
+    <t>HR_27_Employee_adds_Contacts_Information_ESS_NU_FT</t>
+  </si>
+  <si>
+    <t>HR_26_Employee_updates_Person_Information_Biographical_Information_Phone_Number_ESS_E_FT</t>
+  </si>
+  <si>
+    <t>HR_30_Employee_views_employment_details_ESS_NU_FT</t>
+  </si>
+  <si>
+    <t>HR_31_Employee_Views_Benefits_Information_ESS_NU_FT</t>
+  </si>
+  <si>
+    <t>HR_40_Manager_Updates_Views_Skills_And_Qualifications_For_Direct_Reports_MSS_M_FT</t>
+  </si>
+  <si>
+    <t>HR_41_Manager_Views_Compensation_For_Direct_Reports_MSS_M_FT</t>
+  </si>
+  <si>
+    <t>HR_91_Quick_Actions_Edit_Seniority_Dates</t>
+  </si>
+  <si>
+    <t>HR_94_Quick_Actions_Record_Correction</t>
+  </si>
+  <si>
+    <t>HR_95_Quick_Actions_Update_Employee_Person_Information</t>
+  </si>
+  <si>
+    <t>HR_96_Quick_Actions_Delete_Record</t>
+  </si>
+  <si>
+    <t>HR_902_Employee_Checks_Journeys_ESS</t>
+  </si>
+  <si>
+    <t>HR_903_Manager_Checks_My_Teams_Journeys</t>
+  </si>
+  <si>
+    <t>HR_904_Manager_creates_Requisition</t>
+  </si>
+  <si>
+    <t>HR_914_HR_Employee_Checks_Internal_Career_Site_ESS</t>
+  </si>
+  <si>
+    <t>HR_93_Quick_Actions_Assignment_Change</t>
+  </si>
+  <si>
+    <t>HR_86_Quick_Actions_Promote_An_Employee</t>
+  </si>
+  <si>
+    <t>HR_82_Quick_Actions_Temp_Assignment_Start</t>
+  </si>
+  <si>
+    <t>HR_83_Quick_Actions_Temp_Assignment_End_Current_Date</t>
+  </si>
+  <si>
+    <t>HR_909_Mandatory_Vaccination_Reports_Admin_and_MSS</t>
+  </si>
+  <si>
+    <t>HR_910_Departure</t>
+  </si>
+  <si>
+    <t>HR_84_Quick_Actions_Rehire_Manual_Current_Date</t>
+  </si>
+  <si>
+    <t>HR_90_Quick_Actions_Reverse_termination</t>
+  </si>
+  <si>
+    <t>HR_76_Rehire_calc_card_is_not_filled_with_the_new_assignment_number</t>
+  </si>
+  <si>
+    <t>HR_33_Employee_Views_PaySlips</t>
+  </si>
+  <si>
+    <t>HR_911_Sick_Absence_Report</t>
+  </si>
+  <si>
+    <t>HR_912_Vacation_Leave_Balance</t>
+  </si>
+  <si>
+    <t>HR_908_Cultural_Census_2_reports_Detailed_and_Summary</t>
+  </si>
+  <si>
+    <t>HR_76_Rehire_calc_card_is_not_filled_with_the_new_assignment_number_negative</t>
+  </si>
+  <si>
+    <t>HR_43_Run_Employee_Termination_Report_OTBI_and_validate_all_columns</t>
+  </si>
+  <si>
+    <t>HR_44_Metrolinx_Employee_List_Report_with_Addresses_and_Email_added_to_manager_hierarchy_in_the_Parent_Managers_folder</t>
+  </si>
+  <si>
+    <t>CoreHRReports</t>
   </si>
 </sst>
 </file>
@@ -144,11 +261,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,33 +589,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C576A2A-81CC-4798-9F6E-96C5E3D7D114}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="2"/>
+    <col min="1" max="1" width="43.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.81640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="48.08984375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D28" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D32" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D33" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D37" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D41" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D42" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D43" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D44" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -502,52 +898,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F64BCF-46B9-4D24-9D86-56BBE31BFD00}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="133.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
